--- a/Database_edition/source_import/Example_bw/Livebox_6.xlsx
+++ b/Database_edition/source_import/Example_bw/Livebox_6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\dokuwiki\data\Wiki-on-processes-and-products-for-LCA\Database_edition\source_import\Example_bw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40310548-901D-475E-B641-F673C0E070F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE3128D9-0DD3-4DF7-BB97-6011BBFA6668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -195,9 +195,6 @@
     <t>Quartz crystals production</t>
   </si>
   <si>
-    <t xml:space="preserve">Livebox 6 Moatherboard </t>
-  </si>
-  <si>
     <t>CPU Broadcom BCM68360</t>
   </si>
   <si>
@@ -292,6 +289,9 @@
   </si>
   <si>
     <t>SDRAM DDR3L memory - Samsung production</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Livebox 6 Motherboard </t>
   </si>
 </sst>
 </file>
@@ -911,8 +911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB43B447-921B-4B79-B848-5DFD49186505}">
   <dimension ref="A1:K174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="A116" sqref="A116"/>
+    <sheetView tabSelected="1" topLeftCell="A93" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B112" sqref="B112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -931,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -1222,7 +1222,7 @@
     </row>
     <row r="18" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B18" s="9">
         <v>1</v>
@@ -1235,7 +1235,7 @@
         <v>Deux Ex Silicium</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F18" s="24" t="s">
         <v>4</v>
@@ -1249,7 +1249,7 @@
     </row>
     <row r="19" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B19" s="33">
         <v>1</v>
@@ -1262,7 +1262,7 @@
         <v>Deux Ex Silicium</v>
       </c>
       <c r="E19" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F19" s="25"/>
       <c r="G19" s="24" t="s">
@@ -1477,7 +1477,7 @@
     </row>
     <row r="34" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B34" s="9">
         <v>1</v>
@@ -1686,7 +1686,7 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B47" s="9">
         <v>4</v>
@@ -1699,7 +1699,7 @@
         <v>Deux Ex Silicium</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F47" s="10" t="s">
         <v>4</v>
@@ -1713,7 +1713,7 @@
     </row>
     <row r="48" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A48" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B48" s="9">
         <v>1</v>
@@ -1726,7 +1726,7 @@
         <v>Deux Ex Silicium</v>
       </c>
       <c r="E48" s="24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F48" s="24" t="s">
         <v>4</v>
@@ -1740,7 +1740,7 @@
     </row>
     <row r="49" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B49" s="9">
         <v>1</v>
@@ -2536,7 +2536,7 @@
     </row>
     <row r="98" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A98" s="24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B98" s="9">
         <v>4</v>
@@ -2549,7 +2549,7 @@
         <v>Deux Ex Silicium</v>
       </c>
       <c r="E98" s="24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F98" s="24"/>
       <c r="G98" s="24" t="s">
@@ -2561,7 +2561,7 @@
     </row>
     <row r="99" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A99" s="24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B99" s="9">
         <v>4</v>
@@ -2574,7 +2574,7 @@
         <v>Deux Ex Silicium</v>
       </c>
       <c r="E99" s="24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F99" s="24"/>
       <c r="G99" s="24" t="s">
@@ -2586,7 +2586,7 @@
     </row>
     <row r="100" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A100" s="24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B100" s="9">
         <v>1</v>
@@ -2599,7 +2599,7 @@
         <v>Deux Ex Silicium</v>
       </c>
       <c r="E100" s="24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F100" s="24"/>
       <c r="G100" s="24" t="s">
@@ -2611,7 +2611,7 @@
     </row>
     <row r="101" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A101" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B101" s="9">
         <v>4</v>
@@ -2636,7 +2636,7 @@
     </row>
     <row r="102" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A102" s="24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B102" s="9">
         <v>4</v>
@@ -2649,7 +2649,7 @@
         <v>Deux Ex Silicium</v>
       </c>
       <c r="E102" s="24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F102" s="24" t="s">
         <v>4</v>
@@ -2780,7 +2780,7 @@
         <v>7</v>
       </c>
       <c r="B111" s="20" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="C111" s="20"/>
       <c r="D111" s="20"/>
@@ -2857,7 +2857,7 @@
     </row>
     <row r="116" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A116" s="24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B116" s="9">
         <v>1</v>
@@ -2870,7 +2870,7 @@
         <v>Deux Ex Silicium</v>
       </c>
       <c r="E116" s="24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F116" s="24" t="s">
         <v>4</v>
@@ -2884,7 +2884,7 @@
     </row>
     <row r="117" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A117" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B117" s="9">
         <v>1</v>
@@ -2897,7 +2897,7 @@
         <v>Deux Ex Silicium</v>
       </c>
       <c r="E117" s="24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F117" s="24" t="s">
         <v>4</v>
@@ -2911,7 +2911,7 @@
     </row>
     <row r="118" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A118" s="24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B118" s="9">
         <v>2</v>
@@ -2924,7 +2924,7 @@
         <v>Deux Ex Silicium</v>
       </c>
       <c r="E118" s="24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F118" s="24"/>
       <c r="G118" s="24" t="s">
@@ -2936,7 +2936,7 @@
     </row>
     <row r="119" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A119" s="24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B119" s="9">
         <v>4</v>
@@ -2949,7 +2949,7 @@
         <v>Deux Ex Silicium</v>
       </c>
       <c r="E119" s="24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F119" s="24"/>
       <c r="G119" s="24" t="s">
@@ -2961,7 +2961,7 @@
     </row>
     <row r="120" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A120" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B120" s="9">
         <v>1</v>
@@ -2974,7 +2974,7 @@
         <v>Deux Ex Silicium</v>
       </c>
       <c r="E120" s="24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F120" s="24"/>
       <c r="G120" s="24" t="s">
@@ -2986,7 +2986,7 @@
     </row>
     <row r="121" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A121" s="24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B121" s="9">
         <v>1</v>
@@ -2999,7 +2999,7 @@
         <v>Deux Ex Silicium</v>
       </c>
       <c r="E121" s="24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F121" s="24" t="s">
         <v>4</v>
@@ -3029,7 +3029,7 @@
       </c>
       <c r="E122" s="14" t="str">
         <f>B111</f>
-        <v xml:space="preserve">Livebox 6 Moatherboard </v>
+        <v xml:space="preserve">Livebox 6 Motherboard </v>
       </c>
       <c r="F122" s="13" t="s">
         <v>4</v>
@@ -3137,26 +3137,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="bda8bc8f-1fd2-4e78-a6bc-9ebf19518310">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="befa33bd-d94f-430f-aef1-5ab98afa7ccf" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006EB4BCE5B1B4094F964C688A05F81F5B" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0a7737f4917e7f9082002eb5d2e5ac3d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bda8bc8f-1fd2-4e78-a6bc-9ebf19518310" xmlns:ns3="befa33bd-d94f-430f-aef1-5ab98afa7ccf" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cd7d4630c94309cee25dd5adf8cd87e4" ns2:_="" ns3:_="">
     <xsd:import namespace="bda8bc8f-1fd2-4e78-a6bc-9ebf19518310"/>
@@ -3345,10 +3325,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="bda8bc8f-1fd2-4e78-a6bc-9ebf19518310">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="befa33bd-d94f-430f-aef1-5ab98afa7ccf" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EB2EA89-4A79-404A-B8EF-E6B59010D46B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8479CA6-4B08-4543-92D6-8A1F84AB9E2E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="bda8bc8f-1fd2-4e78-a6bc-9ebf19518310"/>
+    <ds:schemaRef ds:uri="befa33bd-d94f-430f-aef1-5ab98afa7ccf"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3365,20 +3376,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8479CA6-4B08-4543-92D6-8A1F84AB9E2E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EB2EA89-4A79-404A-B8EF-E6B59010D46B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="bda8bc8f-1fd2-4e78-a6bc-9ebf19518310"/>
-    <ds:schemaRef ds:uri="befa33bd-d94f-430f-aef1-5ab98afa7ccf"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Database_edition/source_import/Example_bw/Livebox_6.xlsx
+++ b/Database_edition/source_import/Example_bw/Livebox_6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\dokuwiki\data\Wiki-on-processes-and-products-for-LCA\Database_edition\source_import\Example_bw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE3128D9-0DD3-4DF7-BB97-6011BBFA6668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40FEFA99-7CE9-4052-B39E-1DD5BD716D2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="89">
   <si>
     <t>Database</t>
   </si>
@@ -292,6 +292,15 @@
   </si>
   <si>
     <t xml:space="preserve">Livebox 6 Motherboard </t>
+  </si>
+  <si>
+    <t>printed circuit board</t>
+  </si>
+  <si>
+    <t>mm2</t>
+  </si>
+  <si>
+    <t>printed circuit board production</t>
   </si>
 </sst>
 </file>
@@ -403,7 +412,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -548,6 +557,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -557,7 +588,7 @@
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -624,6 +655,8 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Lien hypertexte 2" xfId="3" xr:uid="{4438E8B0-7A05-4607-9223-425FD67E8972}"/>
@@ -909,10 +942,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB43B447-921B-4B79-B848-5DFD49186505}">
-  <dimension ref="A1:K174"/>
+  <dimension ref="A1:K175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B112" sqref="B112"/>
+    <sheetView tabSelected="1" topLeftCell="A98" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E123" sqref="E123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2920,7 +2953,7 @@
         <v>10</v>
       </c>
       <c r="D118" s="24" t="str">
-        <f t="shared" ref="D118:D121" si="6">$B$1</f>
+        <f t="shared" ref="D118:D122" si="6">$B$1</f>
         <v>Deux Ex Silicium</v>
       </c>
       <c r="E118" s="24" t="s">
@@ -3011,54 +3044,72 @@
         <v>16</v>
       </c>
     </row>
-    <row r="122" spans="1:11" s="22" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A122" s="11" t="str">
+    <row r="122" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A122" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="B122" s="33"/>
+      <c r="C122" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="D122" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v>Deux Ex Silicium</v>
+      </c>
+      <c r="E122" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="F122" s="25"/>
+      <c r="G122" s="25"/>
+      <c r="H122" s="25"/>
+    </row>
+    <row r="123" spans="1:11" s="22" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A123" s="11" t="str">
         <f>B107</f>
         <v>Livebox 6 Motherboard production</v>
       </c>
-      <c r="B122" s="12">
-        <v>1</v>
-      </c>
-      <c r="C122" s="13" t="str">
+      <c r="B123" s="12">
+        <v>1</v>
+      </c>
+      <c r="C123" s="13" t="str">
         <f>B113</f>
         <v>unit</v>
       </c>
-      <c r="D122" s="13">
+      <c r="D123" s="13">
         <f>B86</f>
         <v>0</v>
       </c>
-      <c r="E122" s="14" t="str">
+      <c r="E123" s="14" t="str">
         <f>B111</f>
         <v xml:space="preserve">Livebox 6 Motherboard </v>
       </c>
-      <c r="F122" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="G122" s="13" t="str">
+      <c r="F123" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G123" s="13" t="str">
         <f>B109</f>
         <v>GLO</v>
       </c>
-      <c r="H122" s="13" t="s">
+      <c r="H123" s="13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="123" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="124" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="125" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A126" s="22"/>
-      <c r="B126" s="22"/>
-      <c r="C126" s="22"/>
-      <c r="D126" s="22"/>
-      <c r="E126" s="22"/>
-      <c r="F126" s="22"/>
-      <c r="G126" s="22"/>
-      <c r="H126" s="22"/>
-      <c r="I126" s="22"/>
-      <c r="J126" s="22"/>
-      <c r="K126" s="22"/>
-    </row>
-    <row r="127" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="126" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A127" s="22"/>
+      <c r="B127" s="22"/>
+      <c r="C127" s="22"/>
+      <c r="D127" s="22"/>
+      <c r="E127" s="22"/>
+      <c r="F127" s="22"/>
+      <c r="G127" s="22"/>
+      <c r="H127" s="22"/>
+      <c r="I127" s="22"/>
+      <c r="J127" s="22"/>
+      <c r="K127" s="22"/>
+    </row>
     <row r="128" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="129" s="22" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="130" s="22" customFormat="1" x14ac:dyDescent="0.35"/>
@@ -3082,20 +3133,20 @@
     <row r="148" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="149" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="150" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A151" s="22"/>
-      <c r="B151" s="22"/>
-      <c r="C151" s="22"/>
-      <c r="D151" s="22"/>
-      <c r="E151" s="22"/>
-      <c r="F151" s="22"/>
-      <c r="G151" s="22"/>
-      <c r="H151" s="22"/>
-      <c r="I151" s="22"/>
-      <c r="J151" s="22"/>
-      <c r="K151" s="22"/>
-    </row>
-    <row r="152" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="151" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A152" s="22"/>
+      <c r="B152" s="22"/>
+      <c r="C152" s="22"/>
+      <c r="D152" s="22"/>
+      <c r="E152" s="22"/>
+      <c r="F152" s="22"/>
+      <c r="G152" s="22"/>
+      <c r="H152" s="22"/>
+      <c r="I152" s="22"/>
+      <c r="J152" s="22"/>
+      <c r="K152" s="22"/>
+    </row>
     <row r="153" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="154" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="155" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.35"/>
@@ -3117,18 +3168,19 @@
     <row r="171" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="172" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="173" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A174" s="22"/>
-      <c r="B174" s="22"/>
-      <c r="C174" s="22"/>
-      <c r="D174" s="22"/>
-      <c r="E174" s="22"/>
-      <c r="F174" s="22"/>
-      <c r="G174" s="22"/>
-      <c r="H174" s="22"/>
-      <c r="I174" s="22"/>
-      <c r="J174" s="22"/>
-      <c r="K174" s="22"/>
+    <row r="174" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A175" s="22"/>
+      <c r="B175" s="22"/>
+      <c r="C175" s="22"/>
+      <c r="D175" s="22"/>
+      <c r="E175" s="22"/>
+      <c r="F175" s="22"/>
+      <c r="G175" s="22"/>
+      <c r="H175" s="22"/>
+      <c r="I175" s="22"/>
+      <c r="J175" s="22"/>
+      <c r="K175" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3137,6 +3189,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="bda8bc8f-1fd2-4e78-a6bc-9ebf19518310">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="befa33bd-d94f-430f-aef1-5ab98afa7ccf" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006EB4BCE5B1B4094F964C688A05F81F5B" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0a7737f4917e7f9082002eb5d2e5ac3d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bda8bc8f-1fd2-4e78-a6bc-9ebf19518310" xmlns:ns3="befa33bd-d94f-430f-aef1-5ab98afa7ccf" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cd7d4630c94309cee25dd5adf8cd87e4" ns2:_="" ns3:_="">
     <xsd:import namespace="bda8bc8f-1fd2-4e78-a6bc-9ebf19518310"/>
@@ -3325,17 +3388,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="bda8bc8f-1fd2-4e78-a6bc-9ebf19518310">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="befa33bd-d94f-430f-aef1-5ab98afa7ccf" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -3346,6 +3398,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC11A217-A777-4951-9D25-5870F10F0905}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="bda8bc8f-1fd2-4e78-a6bc-9ebf19518310"/>
+    <ds:schemaRef ds:uri="befa33bd-d94f-430f-aef1-5ab98afa7ccf"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8479CA6-4B08-4543-92D6-8A1F84AB9E2E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3364,17 +3427,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC11A217-A777-4951-9D25-5870F10F0905}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="bda8bc8f-1fd2-4e78-a6bc-9ebf19518310"/>
-    <ds:schemaRef ds:uri="befa33bd-d94f-430f-aef1-5ab98afa7ccf"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EB2EA89-4A79-404A-B8EF-E6B59010D46B}">
   <ds:schemaRefs>

--- a/Database_edition/source_import/Example_bw/Livebox_6.xlsx
+++ b/Database_edition/source_import/Example_bw/Livebox_6.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\dokuwiki\data\Wiki-on-processes-and-products-for-LCA\Database_edition\source_import\Example_bw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects_git\FY25\LCA\Wiki-on-processes-and-products-for-LCA\Database_edition\source_import\Example_bw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40FEFA99-7CE9-4052-B39E-1DD5BD716D2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49C27B8C-A0F4-4B82-8134-3060E9D7E596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary_LCI" sheetId="5" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="90">
   <si>
     <t>Database</t>
   </si>
@@ -301,6 +301,9 @@
   </si>
   <si>
     <t>printed circuit board production</t>
+  </si>
+  <si>
+    <t>XX</t>
   </si>
 </sst>
 </file>
@@ -944,8 +947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB43B447-921B-4B79-B848-5DFD49186505}">
   <dimension ref="A1:K175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E123" sqref="E123"/>
+    <sheetView tabSelected="1" topLeftCell="A101" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B129" sqref="B129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3048,7 +3051,9 @@
       <c r="A122" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="B122" s="33"/>
+      <c r="B122" s="33" t="s">
+        <v>89</v>
+      </c>
       <c r="C122" s="25" t="s">
         <v>87</v>
       </c>
@@ -3060,8 +3065,12 @@
         <v>86</v>
       </c>
       <c r="F122" s="25"/>
-      <c r="G122" s="25"/>
-      <c r="H122" s="25"/>
+      <c r="G122" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="H122" s="24" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="123" spans="1:11" s="22" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A123" s="11" t="str">
@@ -3189,14 +3198,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="bda8bc8f-1fd2-4e78-a6bc-9ebf19518310">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="befa33bd-d94f-430f-aef1-5ab98afa7ccf" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3389,21 +3396,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="bda8bc8f-1fd2-4e78-a6bc-9ebf19518310">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="befa33bd-d94f-430f-aef1-5ab98afa7ccf" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC11A217-A777-4951-9D25-5870F10F0905}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EB2EA89-4A79-404A-B8EF-E6B59010D46B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="bda8bc8f-1fd2-4e78-a6bc-9ebf19518310"/>
-    <ds:schemaRef ds:uri="befa33bd-d94f-430f-aef1-5ab98afa7ccf"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3428,9 +3434,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EB2EA89-4A79-404A-B8EF-E6B59010D46B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC11A217-A777-4951-9D25-5870F10F0905}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="bda8bc8f-1fd2-4e78-a6bc-9ebf19518310"/>
+    <ds:schemaRef ds:uri="befa33bd-d94f-430f-aef1-5ab98afa7ccf"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>